--- a/files/imdhub-ids.xlsx
+++ b/files/imdhub-ids.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>tableName</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Participant identifiers</t>
   </si>
   <si>
-    <t>Biospecimen identifiers</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -127,16 +124,10 @@
     <t>Enter the name of the person that modified this record</t>
   </si>
   <si>
-    <t>If other was selected, please provider additional information.</t>
-  </si>
-  <si>
     <t>Participant identifiers and assignment status</t>
   </si>
   <si>
     <t>E.g., assigned, removed, etc.</t>
-  </si>
-  <si>
-    <t>Sample identifiers and assignment status</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -538,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,10 +581,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -601,28 +592,28 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -630,28 +621,28 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -659,31 +650,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -691,25 +682,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -717,25 +708,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -743,22 +734,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -766,25 +757,25 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
         <v>52</v>
       </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -792,22 +783,22 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -815,270 +806,22 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1092,15 +835,6 @@
     <hyperlink ref="L9" r:id="rId7"/>
     <hyperlink ref="L10" r:id="rId8"/>
     <hyperlink ref="L11" r:id="rId9"/>
-    <hyperlink ref="L13" r:id="rId10"/>
-    <hyperlink ref="L14" r:id="rId11"/>
-    <hyperlink ref="L15" r:id="rId12"/>
-    <hyperlink ref="L16" r:id="rId13"/>
-    <hyperlink ref="L17" r:id="rId14"/>
-    <hyperlink ref="L18" r:id="rId15"/>
-    <hyperlink ref="L19" r:id="rId16"/>
-    <hyperlink ref="L20" r:id="rId17"/>
-    <hyperlink ref="L21" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/imdhub-ids.xlsx
+++ b/files/imdhub-ids.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>tableName</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>http://schema.org/Date</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/prov#Person</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
         <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
@@ -834,7 +837,7 @@
     <hyperlink ref="L8" r:id="rId6"/>
     <hyperlink ref="L9" r:id="rId7"/>
     <hyperlink ref="L10" r:id="rId8"/>
-    <hyperlink ref="L11" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId9" location="Person"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
